--- a/QueryReport/excelTemplate/Employee_-__Listwhy_20200224120000_(1)_20200224120000.xlsx
+++ b/QueryReport/excelTemplate/Employee_-__Listwhy_20200224120000_(1)_20200224120000.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1E427-03FB-4DAA-AD08-B92C98339F07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Report" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -121,87 +121,108 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
+  </x:numFmts>
+  <x:fonts count="6">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Microsoft YaHei"/>
+    </x:font>
+    <x:font>
+      <x:sz val="9"/>
+      <x:name val="宋体"/>
+      <x:family val="3"/>
+      <x:charset val="134"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Microsoft YaHei"/>
+      <x:family val="2"/>
+      <x:charset val="134"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Microsoft YaHei"/>
+      <x:family val="2"/>
+      <x:charset val="134"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="11">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <x:xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <x:xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <x:xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf fontId="4" borderId="0" applyFont="1"/>
+    <x:xf fontId="4" fillId="2" borderId="0" applyFont="1" applyFill="1"/>
+    <x:xf fontId="5" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="4" borderId="0" applyNumberFormat="1" applyFont="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,137 +521,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="6" max="6" width="24.6640625" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43661</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.61639999999999995</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1">
-        <v>12000</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="3">
-        <v>43661</v>
-      </c>
-      <c r="O2" s="3">
-        <v>52963</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:S2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F1" sqref="F1:F1048576"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.5"/>
+  <x:cols>
+    <x:col min="6" max="6" width="24.6640625" style="6" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1">
+      <x:c s="9" t="str">
+        <x:v>Contract Description</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Staff Number</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>English Name</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Zone Name</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Position Name</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Join Date</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Year of Service</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Annual Leave Class</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Holiday Type</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Employment Type</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Basic Salary</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Pay Scale Point</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>PayScale Scheme</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Commence Date</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Terminate Date</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Staff Status</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Part Time</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>SecurityGroupID</x:v>
+      </x:c>
+      <x:c s="9" t="str">
+        <x:v>Securtiy Group</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c s="7" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>AA100002</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Test One</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="10" t="d">
+        <x:v>2019-07-15T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="7" t="n">
+        <x:v>0.6164</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="7" t="n">
+        <x:v>12000</x:v>
+      </x:c>
+      <x:c s="7" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="10" t="d">
+        <x:v>2019-07-15T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="10" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="7" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="7" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:phoneticPr fontId="1" type="noConversion"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>
--- a/QueryReport/excelTemplate/Employee_-__Listwhy_20200224120000_(1)_20200224120000.xlsx
+++ b/QueryReport/excelTemplate/Employee_-__Listwhy_20200224120000_(1)_20200224120000.xlsx
@@ -125,8 +125,10 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
+    <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
+    <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
   </x:numFmts>
-  <x:fonts count="6">
+  <x:fonts count="10">
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -164,13 +166,45 @@
       <x:b/>
       <x:color rgb="000000"/>
     </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="5">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF"/>
+      </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
@@ -192,7 +226,7 @@
       <x:alignment vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -208,6 +242,14 @@
     <x:xf fontId="4" fillId="2" borderId="0" applyFont="1" applyFill="1"/>
     <x:xf fontId="5" borderId="0" applyFont="1"/>
     <x:xf numFmtId="240" fontId="4" borderId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf fontId="6" borderId="0" applyFont="1"/>
+    <x:xf fontId="6" fillId="3" borderId="0" applyFont="1" applyFill="1"/>
+    <x:xf fontId="7" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="6" borderId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf fontId="8" borderId="0" applyFont="1"/>
+    <x:xf fontId="8" fillId="4" borderId="0" applyFont="1" applyFill="1"/>
+    <x:xf fontId="9" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="8" borderId="0" applyNumberFormat="1" applyFont="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,120 +577,3011 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1">
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Contract Description</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Staff Number</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>English Name</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Zone Name</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Position Name</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Join Date</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Year of Service</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Annual Leave Class</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Holiday Type</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Employment Type</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Basic Salary</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Pay Scale Point</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>PayScale Scheme</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Commence Date</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Terminate Date</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Staff Status</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Part Time</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>SecurityGroupID</x:v>
       </x:c>
-      <x:c s="9" t="str">
+      <x:c s="17" t="str">
         <x:v>Securtiy Group</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c s="7" t="str">
-        <x:v>Data World Solutions Ltd</x:v>
-      </x:c>
-      <x:c s="7" t="str">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
         <x:v>AA100002</x:v>
       </x:c>
-      <x:c s="7" t="str">
+      <x:c s="0" t="str">
         <x:v>Test One</x:v>
       </x:c>
-      <x:c s="7" t="str">
-        <x:v>Unit A</x:v>
-      </x:c>
-      <x:c s="7" t="str">
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c s="10" t="d">
+      <x:c s="18" t="d">
         <x:v>2019-07-15T00:00:00.0000000</x:v>
       </x:c>
-      <x:c s="7" t="n">
+      <x:c s="15" t="n">
         <x:v>0.6164</x:v>
       </x:c>
-      <x:c s="7" t="str">
+      <x:c s="0" t="str">
         <x:v>AL07</x:v>
       </x:c>
-      <x:c s="7" t="str">
+      <x:c s="0" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c s="7" t="str">
-        <x:v>Monthly</x:v>
-      </x:c>
-      <x:c s="7" t="n">
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
         <x:v>12000</x:v>
       </x:c>
-      <x:c s="7" t="n">
-        <x:v/>
-      </x:c>
-      <x:c s="7" t="str">
-        <x:v/>
-      </x:c>
-      <x:c s="10" t="d">
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
         <x:v>2019-07-15T00:00:00.0000000</x:v>
       </x:c>
-      <x:c s="10" t="d">
+      <x:c s="18" t="d">
         <x:v>2045-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c s="7" t="str">
-        <x:v>Active</x:v>
-      </x:c>
-      <x:c s="7" t="str">
-        <x:v>No</x:v>
-      </x:c>
-      <x:c s="7" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c s="7" t="str">
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AA100003</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS 190808</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLERK 文員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-05-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>0.8219</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>7000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-05-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AA100818</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Tai man 10</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CARE WORKER 護理員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-10-11T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>0.3753</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-10-11T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2020-10-11T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AA100819</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>demo 191028</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-10-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>0.4027</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>15730</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-10-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AA100820</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS 191108</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CARE WORKER 護理員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>0.3178</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>17080</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AA100821</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Sheung Foon Lok</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLP</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLERK 文員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-10-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>0.4</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-10-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2022-10-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S30163</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Wong Kam Tim</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit Incharge</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2010-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>9.989</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL16</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>47075</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-08-14T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2039-02-20T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S30171</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Ka Man</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>SOCIAL WORKER 社會工作員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2011-10-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>8.4027</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL10</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>61170</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2020-08-31T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31609</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Fai</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>22005</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-08-14T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2034-05-05T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31610</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Shun</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-12-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2046-06-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31611</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Hang</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>主任</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>30020</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-04-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2048-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31612</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Ka</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>OFFICER 主任</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39554</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-04-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2048-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31613</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Wong Chi Man</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit C</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>EXECUTIVE DIRECTOR 總幹事</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>73700</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-08-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2040-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31614</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Lau Wah</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>福利服務助理</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-01-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4.1425</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-08-15T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2053-05-25T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31629</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Lee Siu</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit C</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLEANER 清潔員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-07-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>3.6466</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-07-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31630</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>LAM Lai Wo</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>護理員 Personal Care  Worker</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-09-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>3.4712</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-09-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2033-09-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31631</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Lau Kin Fai</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>護理員 Personal Care  Worker</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-09-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>3.4712</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Daily</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-09-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2046-10-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31632</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>LAU LEI CHEONG</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>護理員 Personal Care  Worker</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-09-07T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>3.4685</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-09-07T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31633</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>WONG Ka Wai</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MISC 打雜</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>3.4849</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Daily</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2061-05-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31636</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Man Hung</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLERK 文員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.989</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL10</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2037-02-03T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31639</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>WOO Tsz Ching</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>RELIEF WORKER 支援人員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-10-20T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.3507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-10-20T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2100-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31640</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Lau Li Chun</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MISC 打雜</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1479</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2041-04-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31641</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Wong Li Chun</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLEANER 清潔員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1479</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2053-08-08T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31642</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Siu Fong</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit C</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLERK 文員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1479</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-08-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2040-02-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31643</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Li Chun</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1479</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31644</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Cheung Li Chun</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1479</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2041-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31645</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Siu Li</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1479</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2050-12-15T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31646</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Li Yim Fong2</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLEANER 清潔員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-11-28T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>3.2438</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-11-28T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2053-04-07T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31647</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan guan guan</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2015-11-15T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4.2795</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-09-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CARE</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31648</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Lau Mei Lan</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit C</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>CLEANER 清潔員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-02-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>3.0658</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>6000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-02-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2053-03-22T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31649</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Chi Man</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>福利服務助理</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-03-08T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>1.9699</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>20650</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-03-08T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31651</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Tai Man, Peter</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Project Executive</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2016-11-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>3.2932</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>30320</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-11-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31652</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Wong Siu Ming, John</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>HR Admin</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2015-02-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>5.0575</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>40300</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2015-02-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2047-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>User</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31655</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Wong Chung</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Senior Social  资深社工</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2012-05-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>7.8192</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>26000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2012-05-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2053-02-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31657</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Wong Tai Man</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>HR manager</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>1.3178</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>45000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2043-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2099-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>General Office</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31658</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Leung Mai Mai</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>HR Admin</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2010-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>9.3178</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>41000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2020-05-31T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>General Office</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31659</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Yeung Chau Ha</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>HR Admin</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>1.3178</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>42500</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2048-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>General Office</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31660</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan King</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>福利服務助理</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>16000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-12-14T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31662</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Chan Kit</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>1.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31663</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Lee Kit</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>1.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>20000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31664</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2004-08-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>15.5671</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL17</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>62585</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-04-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31665</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff B</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-08-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.526</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL21</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2020-12-31T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31666</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff Y</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31667</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff D</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>1.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31670</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff F</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31671</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff CA</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-10-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.3589</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2020-08-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2021-10-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31672</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff G</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.989</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>6635</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-08-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31673</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff AA</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>62585</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-10-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31674</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff BB</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.1507</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>68500</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2019-02-18T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="0" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>S31675</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Staff M</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2017-08-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>2.526</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2018-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="18" t="d">
+        <x:v>2020-08-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="0" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="15" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="0" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
